--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -1582,8 +1582,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -1598,7 +1598,7 @@
     <col min="14" max="14" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
